--- a/Python/Excel使用研究/_res/myExcel.xlsx
+++ b/Python/Excel使用研究/_res/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1742F8-5C6E-4096-9BF7-9C330F9EB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3181FC55-E527-4E51-9995-310D8AFC3B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,54 @@
   </si>
   <si>
     <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,11 +160,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -465,7 +516,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -493,7 +544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -507,7 +558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -521,7 +572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -533,6 +584,62 @@
       </c>
       <c r="D5">
         <v>78</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44636.355671296296</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44636.355671296296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Excel使用研究/_res/myExcel.xlsx
+++ b/Python/Excel使用研究/_res/myExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3181FC55-E527-4E51-9995-310D8AFC3B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12AB63-3AC4-4D2D-804F-E8815815DAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表A" sheetId="1" r:id="rId1"/>
@@ -586,10 +586,10 @@
         <v>78</v>
       </c>
       <c r="G5" s="2">
-        <v>44636.355671296296</v>
+        <v>45090.745092592595</v>
       </c>
       <c r="H5" s="2">
-        <v>44636.355671296296</v>
+        <v>45090.745092592595</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
